--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.40478560316197</v>
+        <v>0.4022556666666666</v>
       </c>
       <c r="H2">
-        <v>7.40478560316197</v>
+        <v>1.206767</v>
       </c>
       <c r="I2">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="J2">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.88351294625641</v>
+        <v>2.891565</v>
       </c>
       <c r="N2">
-        <v>1.88351294625641</v>
+        <v>8.674695</v>
       </c>
       <c r="O2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q2">
-        <v>13.94700954780865</v>
+        <v>1.163148406785</v>
       </c>
       <c r="R2">
-        <v>13.94700954780865</v>
+        <v>10.468335661065</v>
       </c>
       <c r="S2">
-        <v>0.008563999989994492</v>
+        <v>0.0005420250841281953</v>
       </c>
       <c r="T2">
-        <v>0.008563999989994492</v>
+        <v>0.0005420250841281954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.40478560316197</v>
+        <v>0.4022556666666666</v>
       </c>
       <c r="H3">
-        <v>7.40478560316197</v>
+        <v>1.206767</v>
       </c>
       <c r="I3">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="J3">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.893838915054</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N3">
-        <v>106.893838915054</v>
+        <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9801643940711203</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P3">
-        <v>0.9801643940711203</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q3">
-        <v>791.5259594649066</v>
+        <v>44.01802357194921</v>
       </c>
       <c r="R3">
-        <v>791.5259594649066</v>
+        <v>396.162212147543</v>
       </c>
       <c r="S3">
-        <v>0.486027365629996</v>
+        <v>0.02051232051780028</v>
       </c>
       <c r="T3">
-        <v>0.486027365629996</v>
+        <v>0.02051232051780029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.40478560316197</v>
+        <v>0.4022556666666666</v>
       </c>
       <c r="H4">
-        <v>7.40478560316197</v>
+        <v>1.206767</v>
       </c>
       <c r="I4">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="J4">
-        <v>0.4958631108923245</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.279699753337226</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N4">
-        <v>0.279699753337226</v>
+        <v>0.199392</v>
       </c>
       <c r="O4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q4">
-        <v>2.071116706719445</v>
+        <v>0.02673552062933333</v>
       </c>
       <c r="R4">
-        <v>2.071116706719445</v>
+        <v>0.240619685664</v>
       </c>
       <c r="S4">
-        <v>0.001271745272333996</v>
+        <v>1.245870495440925E-05</v>
       </c>
       <c r="T4">
-        <v>0.001271745272333996</v>
+        <v>1.245870495440925E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.73307375385941</v>
+        <v>0.4022556666666666</v>
       </c>
       <c r="H5">
-        <v>3.73307375385941</v>
+        <v>1.206767</v>
       </c>
       <c r="I5">
-        <v>0.2499861122229881</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="J5">
-        <v>0.2499861122229881</v>
+        <v>0.02112849561592737</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.88351294625641</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N5">
-        <v>1.88351294625641</v>
+        <v>0.987322</v>
       </c>
       <c r="O5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q5">
-        <v>7.031292744724214</v>
+        <v>0.1323852897748889</v>
       </c>
       <c r="R5">
-        <v>7.031292744724214</v>
+        <v>1.191467607974</v>
       </c>
       <c r="S5">
-        <v>0.004317484030469286</v>
+        <v>6.169130904448147E-05</v>
       </c>
       <c r="T5">
-        <v>0.004317484030469286</v>
+        <v>6.169130904448147E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.73307375385941</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H6">
-        <v>3.73307375385941</v>
+        <v>22.590688</v>
       </c>
       <c r="I6">
-        <v>0.2499861122229881</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="J6">
-        <v>0.2499861122229881</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.893838915054</v>
+        <v>2.891565</v>
       </c>
       <c r="N6">
-        <v>106.893838915054</v>
+        <v>8.674695</v>
       </c>
       <c r="O6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q6">
-        <v>399.0425845030637</v>
+        <v>21.77414758224</v>
       </c>
       <c r="R6">
-        <v>399.0425845030637</v>
+        <v>195.96732824016</v>
       </c>
       <c r="S6">
-        <v>0.2450274862132402</v>
+        <v>0.01014671395862981</v>
       </c>
       <c r="T6">
-        <v>0.2450274862132402</v>
+        <v>0.01014671395862981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.73307375385941</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H7">
-        <v>3.73307375385941</v>
+        <v>22.590688</v>
       </c>
       <c r="I7">
-        <v>0.2499861122229881</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="J7">
-        <v>0.2499861122229881</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.279699753337226</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N7">
-        <v>0.279699753337226</v>
+        <v>328.283929</v>
       </c>
       <c r="O7">
-        <v>0.0025647103896183</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P7">
-        <v>0.0025647103896183</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q7">
-        <v>1.044139808144149</v>
+        <v>824.0177572725725</v>
       </c>
       <c r="R7">
-        <v>1.044139808144149</v>
+        <v>7416.159815453152</v>
       </c>
       <c r="S7">
-        <v>0.0006411419792785839</v>
+        <v>0.383990805991235</v>
       </c>
       <c r="T7">
-        <v>0.0006411419792785839</v>
+        <v>0.383990805991235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.20953989876267</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H8">
-        <v>2.20953989876267</v>
+        <v>22.590688</v>
       </c>
       <c r="I8">
-        <v>0.1479623295741766</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="J8">
-        <v>0.1479623295741766</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.88351294625641</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N8">
-        <v>1.88351294625641</v>
+        <v>0.199392</v>
       </c>
       <c r="O8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q8">
-        <v>4.161697004589566</v>
+        <v>0.5004891624106668</v>
       </c>
       <c r="R8">
-        <v>4.161697004589566</v>
+        <v>4.504402461696</v>
       </c>
       <c r="S8">
-        <v>0.00255544193782136</v>
+        <v>0.0002332270575091245</v>
       </c>
       <c r="T8">
-        <v>0.00255544193782136</v>
+        <v>0.0002332270575091244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.20953989876267</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H9">
-        <v>2.20953989876267</v>
+        <v>22.590688</v>
       </c>
       <c r="I9">
-        <v>0.1479623295741766</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="J9">
-        <v>0.1479623295741766</v>
+        <v>0.395525608811629</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.893838915054</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N9">
-        <v>106.893838915054</v>
+        <v>0.987322</v>
       </c>
       <c r="O9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q9">
-        <v>236.1862020147216</v>
+        <v>2.478253695281778</v>
       </c>
       <c r="R9">
-        <v>236.1862020147216</v>
+        <v>22.304283257536</v>
       </c>
       <c r="S9">
-        <v>0.1450274071124242</v>
+        <v>0.001154861804255054</v>
       </c>
       <c r="T9">
-        <v>0.1450274071124242</v>
+        <v>0.001154861804255054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.20953989876267</v>
+        <v>3.768124</v>
       </c>
       <c r="H10">
-        <v>2.20953989876267</v>
+        <v>11.304372</v>
       </c>
       <c r="I10">
-        <v>0.1479623295741766</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="J10">
-        <v>0.1479623295741766</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.279699753337226</v>
+        <v>2.891565</v>
       </c>
       <c r="N10">
-        <v>0.279699753337226</v>
+        <v>8.674695</v>
       </c>
       <c r="O10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q10">
-        <v>0.6180077646726782</v>
+        <v>10.89577547406</v>
       </c>
       <c r="R10">
-        <v>0.6180077646726782</v>
+        <v>98.06197926654001</v>
       </c>
       <c r="S10">
-        <v>0.0003794805239310177</v>
+        <v>0.005077411948053284</v>
       </c>
       <c r="T10">
-        <v>0.0003794805239310177</v>
+        <v>0.005077411948053285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.5857253112699</v>
+        <v>3.768124</v>
       </c>
       <c r="H11">
-        <v>1.5857253112699</v>
+        <v>11.304372</v>
       </c>
       <c r="I11">
-        <v>0.1061884473105106</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="J11">
-        <v>0.1061884473105106</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.88351294625641</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N11">
-        <v>1.88351294625641</v>
+        <v>328.283929</v>
       </c>
       <c r="O11">
-        <v>0.01727089553926132</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P11">
-        <v>0.01727089553926132</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q11">
-        <v>2.986734152983332</v>
+        <v>412.3381838930654</v>
       </c>
       <c r="R11">
-        <v>2.986734152983332</v>
+        <v>3711.043655037588</v>
       </c>
       <c r="S11">
-        <v>0.001833969580976184</v>
+        <v>0.1921488586582555</v>
       </c>
       <c r="T11">
-        <v>0.001833969580976184</v>
+        <v>0.1921488586582556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.5857253112699</v>
+        <v>3.768124</v>
       </c>
       <c r="H12">
-        <v>1.5857253112699</v>
+        <v>11.304372</v>
       </c>
       <c r="I12">
-        <v>0.1061884473105106</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="J12">
-        <v>0.1061884473105106</v>
+        <v>0.1979208697642645</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>106.893838915054</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N12">
-        <v>106.893838915054</v>
+        <v>0.199392</v>
       </c>
       <c r="O12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q12">
-        <v>169.5042659864085</v>
+        <v>0.2504445935360001</v>
       </c>
       <c r="R12">
-        <v>169.5042659864085</v>
+        <v>2.254001341824</v>
       </c>
       <c r="S12">
-        <v>0.1040821351154597</v>
+        <v>0.00011670673414411</v>
       </c>
       <c r="T12">
-        <v>0.1040821351154597</v>
+        <v>0.00011670673414411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.768124</v>
+      </c>
+      <c r="H13">
+        <v>11.304372</v>
+      </c>
+      <c r="I13">
+        <v>0.1979208697642645</v>
+      </c>
+      <c r="J13">
+        <v>0.1979208697642645</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.987322</v>
+      </c>
+      <c r="O13">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P13">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q13">
+        <v>1.240117241309334</v>
+      </c>
+      <c r="R13">
+        <v>11.161055171784</v>
+      </c>
+      <c r="S13">
+        <v>0.0005778924238115422</v>
+      </c>
+      <c r="T13">
+        <v>0.0005778924238115422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.484829666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.454489</v>
+      </c>
+      <c r="I14">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="J14">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.891565</v>
+      </c>
+      <c r="N14">
+        <v>8.674695</v>
+      </c>
+      <c r="O14">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="P14">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="Q14">
+        <v>12.968176495095</v>
+      </c>
+      <c r="R14">
+        <v>116.713588455855</v>
+      </c>
+      <c r="S14">
+        <v>0.006043147129584154</v>
+      </c>
+      <c r="T14">
+        <v>0.006043147129584154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.484829666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.454489</v>
+      </c>
+      <c r="I15">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="J15">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N15">
+        <v>328.283929</v>
+      </c>
+      <c r="O15">
+        <v>0.9708367737425379</v>
+      </c>
+      <c r="P15">
+        <v>0.970836773742538</v>
+      </c>
+      <c r="Q15">
+        <v>490.7658346230313</v>
+      </c>
+      <c r="R15">
+        <v>4416.892511607281</v>
+      </c>
+      <c r="S15">
+        <v>0.2286960040929345</v>
+      </c>
+      <c r="T15">
+        <v>0.2286960040929345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.484829666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.454489</v>
+      </c>
+      <c r="I16">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="J16">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.199392</v>
+      </c>
+      <c r="O16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q16">
+        <v>0.2980797189653334</v>
+      </c>
+      <c r="R16">
+        <v>2.682717470688</v>
+      </c>
+      <c r="S16">
+        <v>0.0001389046176795892</v>
+      </c>
+      <c r="T16">
+        <v>0.0001389046176795891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.484829666666667</v>
+      </c>
+      <c r="H17">
+        <v>13.454489</v>
+      </c>
+      <c r="I17">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="J17">
+        <v>0.2355658647038269</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.987322</v>
+      </c>
+      <c r="O17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q17">
+        <v>1.475990332050889</v>
+      </c>
+      <c r="R17">
+        <v>13.283912988458</v>
+      </c>
+      <c r="S17">
+        <v>0.0006878088636286679</v>
+      </c>
+      <c r="T17">
+        <v>0.0006878088636286678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.853099333333333</v>
+      </c>
+      <c r="H18">
+        <v>8.559297999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="J18">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.891565</v>
+      </c>
+      <c r="N18">
+        <v>8.674695</v>
+      </c>
+      <c r="O18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="P18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="Q18">
+        <v>8.249922173789999</v>
+      </c>
+      <c r="R18">
+        <v>74.24929956410999</v>
+      </c>
+      <c r="S18">
+        <v>0.003844449026637532</v>
+      </c>
+      <c r="T18">
+        <v>0.003844449026637532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.853099333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.559297999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="J19">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N19">
+        <v>328.283929</v>
+      </c>
+      <c r="O19">
+        <v>0.9708367737425379</v>
+      </c>
+      <c r="P19">
+        <v>0.970836773742538</v>
+      </c>
+      <c r="Q19">
+        <v>312.208886324649</v>
+      </c>
+      <c r="R19">
+        <v>2809.879976921841</v>
+      </c>
+      <c r="S19">
+        <v>0.1454887844823126</v>
+      </c>
+      <c r="T19">
+        <v>0.1454887844823126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.5857253112699</v>
-      </c>
-      <c r="H13">
-        <v>1.5857253112699</v>
-      </c>
-      <c r="I13">
-        <v>0.1061884473105106</v>
-      </c>
-      <c r="J13">
-        <v>0.1061884473105106</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="N13">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="O13">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="P13">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="Q13">
-        <v>0.4435269784227869</v>
-      </c>
-      <c r="R13">
-        <v>0.4435269784227869</v>
-      </c>
-      <c r="S13">
-        <v>0.0002723426140747019</v>
-      </c>
-      <c r="T13">
-        <v>0.0002723426140747019</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.853099333333333</v>
+      </c>
+      <c r="H20">
+        <v>8.559297999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="J20">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.199392</v>
+      </c>
+      <c r="O20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q20">
+        <v>0.1896283940906666</v>
+      </c>
+      <c r="R20">
+        <v>1.706655546816</v>
+      </c>
+      <c r="S20">
+        <v>8.836649361381707E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.836649361381706E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.853099333333333</v>
+      </c>
+      <c r="H21">
+        <v>8.559297999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="J21">
+        <v>0.1498591611043523</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.987322</v>
+      </c>
+      <c r="O21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q21">
+        <v>0.9389759133284443</v>
+      </c>
+      <c r="R21">
+        <v>8.450783219955998</v>
+      </c>
+      <c r="S21">
+        <v>0.0004375611017883421</v>
+      </c>
+      <c r="T21">
+        <v>0.000437561101788342</v>
       </c>
     </row>
   </sheetData>
